--- a/test/test_copy_from.xlsx
+++ b/test/test_copy_from.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B64ED-A1E8-4095-A647-473F9245A244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBC51E-DF0E-477F-B75E-0C5B6C723E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E379F36C-0D36-47BB-91F1-A215C2CEA45D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E379F36C-0D36-47BB-91F1-A215C2CEA45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="18">
+  <si>
+    <t>h1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -42,42 +103,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zzz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,7 +508,7 @@
   <dimension ref="B2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -499,1046 +524,997 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <f>ROW()</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <f>ROW()</f>
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>ROW()</f>
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>ROW()</f>
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <f>ROW()</f>
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
+      <c r="B7" s="1">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
-        <f>ROW()</f>
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="1">
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <f>ROW()</f>
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>ROW()</f>
         <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>ROW()</f>
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>0</v>
+      <c r="B12" s="1">
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1">
-        <f>ROW()</f>
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
+      <c r="B13" s="1">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <f>ROW()</f>
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f>ROW()</f>
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>ROW()</f>
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>ROW()</f>
         <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
+      <c r="B17" s="1">
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <f>ROW()</f>
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
+      <c r="B18" s="1">
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <f>ROW()</f>
         <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <f>ROW()</f>
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>ROW()</f>
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>ROW()</f>
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>0</v>
+      <c r="B22" s="1">
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
-        <f>ROW()</f>
         <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
+      <c r="B23" s="1">
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
-        <f>ROW()</f>
         <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <f>ROW()</f>
         <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>ROW()</f>
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>ROW()</f>
         <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>0</v>
+      <c r="B27" s="1">
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1">
-        <f>ROW()</f>
         <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+      <c r="B28" s="1">
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
-        <f>ROW()</f>
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>ROW()</f>
         <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <f>ROW()</f>
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1">
-        <f>ROW()</f>
         <v>31</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
+      <c r="B32" s="1">
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
-        <f>ROW()</f>
         <v>32</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>9</v>
+      <c r="B33" s="1">
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
-        <f>ROW()</f>
         <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f>ROW()</f>
         <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <f>ROW()</f>
         <v>35</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f>ROW()</f>
         <v>36</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>0</v>
+      <c r="B37" s="1">
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1">
-        <f>ROW()</f>
         <v>37</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>9</v>
+      <c r="B38" s="1">
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
-        <f>ROW()</f>
         <v>38</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>ROW()</f>
         <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>ROW()</f>
         <v>40</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <f>ROW()</f>
         <v>41</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>0</v>
+      <c r="B42" s="1">
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1">
-        <f>ROW()</f>
         <v>42</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>9</v>
+      <c r="B43" s="1">
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1">
-        <f>ROW()</f>
         <v>43</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>ROW()</f>
         <v>44</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f>ROW()</f>
         <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <f>ROW()</f>
         <v>46</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>0</v>
+      <c r="B47" s="1">
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1">
-        <f>ROW()</f>
         <v>47</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>9</v>
+      <c r="B48" s="1">
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
-        <f>ROW()</f>
         <v>48</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f>ROW()</f>
         <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <f>ROW()</f>
         <v>50</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="1">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
       </c>
       <c r="F51" s="1">
-        <f>ROW()</f>
         <v>51</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:G51" xr:uid="{6E53F0B4-3B30-4588-B304-DCBF0E28B250}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
